--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_3_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_3_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.40000000000006</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.726431449610715e-07</v>
+        <v>1.069257884456221e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>6.726431449610715e-07</v>
+        <v>1.069257884456221e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>62.58701264358352</v>
+        <v>60.69499867193912</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.529468906120826, 85.64455638104621]</t>
+          <t>[39.89949835398596, 81.49049898989227]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.915670616581266e-06</v>
+        <v>4.728680096377502e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.915670616581266e-06</v>
+        <v>4.728680096377502e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655888</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2390265320464264, 2.0692372032653497]</t>
+          <t>[1.3648160276856558, 2.119553001521041]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.160642858546225e-10</v>
+        <v>4.825695398835705e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>3.160642858546225e-10</v>
+        <v>4.825695398835705e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>62.29526959002418</v>
+        <v>70.37303827211969</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.501482113564094, 76.08905706648426]</t>
+          <t>[58.006697841073304, 82.73937870316607]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.276579504557958e-12</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>9.276579504557958e-12</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>16.50290290290295</v>
+        <v>16.39135135135143</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.02302302302306</v>
+        <v>15.02918918918926</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.98278278278283</v>
+        <v>17.7535135135136</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.40000000000006</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.646893167206454e-05</v>
+        <v>0.0009811331950526636</v>
       </c>
       <c r="I3" t="n">
-        <v>1.646893167206454e-05</v>
+        <v>0.0009811331950526636</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.32426512670629</v>
+        <v>40.69627153579664</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[27.913998972806, 74.73453128060659]</t>
+          <t>[15.05322229947997, 66.33932077211331]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6.250050233136406e-05</v>
+        <v>0.002545522675897249</v>
       </c>
       <c r="O3" t="n">
-        <v>6.250050233136406e-05</v>
+        <v>0.002545522675897249</v>
       </c>
       <c r="P3" t="n">
-        <v>1.817658211986887</v>
+        <v>1.817658211986886</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2767633807381937, 2.358553043235581]</t>
+          <t>[1.0880791372793457, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.249546593446894e-08</v>
+        <v>8.666754596209358e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>2.249546593446894e-08</v>
+        <v>8.666754596209358e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>61.71634974550291</v>
+        <v>51.79590645540019</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.28494118459406, 75.14775830641176]</t>
+          <t>[37.68692512881637, 65.904887781984]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.556444193643983e-12</v>
+        <v>2.663316012174732e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>5.556444193643983e-12</v>
+        <v>2.663316012174732e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>15.91991991991996</v>
+        <v>16.118918918919</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.99159159159163</v>
+        <v>13.48540540540547</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.8482482482483</v>
+        <v>18.75243243243253</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.40000000000006</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003944037470109407</v>
+        <v>3.869065203776501e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003944037470109407</v>
+        <v>3.869065203776501e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>37.99976022506348</v>
+        <v>50.76076302849162</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[13.721441352165833, 62.27807909796113]</t>
+          <t>[28.973371505503053, 72.5481545514802]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.002880481925142675</v>
+        <v>2.541694821278639e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002880481925142675</v>
+        <v>2.541694821278639e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.496921488438735</v>
+        <v>2.484342538874811</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.8805529598065034, 3.113290017070966]</t>
+          <t>[2.0692372032653488, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.024354017748919e-10</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="S4" t="n">
-        <v>2.024354017748919e-10</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="T4" t="n">
-        <v>51.03329068245365</v>
+        <v>69.91328244904889</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[38.318967719497024, 63.74761364541027]</t>
+          <t>[58.58675067828315, 81.23981421981463]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.599636061972888e-10</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.599636061972888e-10</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>13.49829829829834</v>
+        <v>13.7124324324325</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.30090090090093</v>
+        <v>12.21405405405411</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.69569569569574</v>
+        <v>15.21081081081088</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.16000000000018</v>
+        <v>22.92000000000014</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001121200639447872</v>
+        <v>0.0005310030143512723</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001121200639447872</v>
+        <v>0.0005310030143512723</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.78001762812585</v>
+        <v>38.01962813957645</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[18.45065804056621, 63.1093772156855]</t>
+          <t>[15.752726988051386, 60.28652929110151]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0006243871359841169</v>
+        <v>0.001269305596920844</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006243871359841169</v>
+        <v>0.001269305596920844</v>
       </c>
       <c r="P5" t="n">
-        <v>2.861711025792505</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.270500396288119, 3.4529216552968904]</t>
+          <t>[2.283079345852042, 3.767395394394967]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.145528116808237e-12</v>
+        <v>1.708573282854786e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>1.145528116808237e-12</v>
+        <v>1.708573282854786e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>50.26142646306401</v>
+        <v>59.99617800338493</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[37.81206479756268, 62.71078812856535]</t>
+          <t>[46.927099428817996, 73.06525657795186]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.220439387912165e-10</v>
+        <v>5.71120928327673e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220439387912165e-10</v>
+        <v>5.71120928327673e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>12.61165165165175</v>
+        <v>11.88444444444452</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.43243243243251</v>
+        <v>9.177177177177235</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.79087087087099</v>
+        <v>14.5917117117118</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.16000000000018</v>
+        <v>22.92000000000014</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002063075082423538</v>
+        <v>0.00139465062563926</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002063075082423538</v>
+        <v>0.00139465062563926</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.36111759269181</v>
+        <v>38.37748350688009</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.93504280622652, 72.7871923791571]</t>
+          <t>[12.884855670112884, 63.870111343647295]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0005003601087112397</v>
+        <v>0.004020451474406883</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0005003601087112397</v>
+        <v>0.004020451474406883</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92460577361212</v>
+        <v>2.849132076228582</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.270500396288119, 3.5787111509361216]</t>
+          <t>[2.0943951023931957, 3.6038690500639676]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.245181735498591e-11</v>
+        <v>1.310888952943401e-09</v>
       </c>
       <c r="S6" t="n">
-        <v>1.245181735498591e-11</v>
+        <v>1.310888952943401e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>56.98627453652195</v>
+        <v>58.88937810968183</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.90214288444491, 72.07040618859898]</t>
+          <t>[44.64449706192819, 73.13425915743547]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.285291650887643e-09</v>
+        <v>1.15991216631528e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.285291650887643e-09</v>
+        <v>1.15991216631528e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>12.37981981981991</v>
+        <v>12.52684684684692</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.968768768768843</v>
+        <v>9.773693693693751</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.79087087087099</v>
+        <v>15.28000000000009</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.16000000000018</v>
+        <v>22.92000000000014</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006941327318365387</v>
+        <v>0.0007090700484622126</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006941327318365387</v>
+        <v>0.0007090700484622126</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>29.08740912937664</v>
+        <v>35.83914203508134</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[7.304703320372809, 50.87011493838047]</t>
+          <t>[12.397779235483895, 59.280504834678794]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01000164234340595</v>
+        <v>0.003529976888952957</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01000164234340595</v>
+        <v>0.003529976888952957</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.031526844905466</v>
+        <v>-2.629000458859927</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.025263860455391, -2.0377898293555403]</t>
+          <t>[-3.2956847857478517, -1.9623161319720022]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.906134576845631e-07</v>
+        <v>4.181401891401038e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>1.906134576845631e-07</v>
+        <v>4.181401891401038e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>46.23434973775957</v>
+        <v>63.4764132591892</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[33.61626755070649, 58.852431924812656]</t>
+          <t>[51.03812998788183, 75.91469653049657]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.793828057789938e-09</v>
+        <v>2.182698466413058e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.793828057789938e-09</v>
+        <v>2.182698466413058e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>11.17429429429438</v>
+        <v>9.59015015015021</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.511351351351404</v>
+        <v>7.158198198198241</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.83723723723736</v>
+        <v>12.02210210210218</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_3_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_3_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.68000000000011</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.069257884456221e-07</v>
+        <v>0.001972394710343606</v>
       </c>
       <c r="I2" t="n">
-        <v>1.069257884456221e-07</v>
+        <v>0.001972394710343606</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>60.69499867193912</v>
+        <v>38.25736639831025</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.89949835398596, 81.49049898989227]</t>
+          <t>[14.81780970220133, 61.696923094419176]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.728680096377502e-07</v>
+        <v>0.001966690451664199</v>
       </c>
       <c r="O2" t="n">
-        <v>4.728680096377502e-07</v>
+        <v>0.001966690451664199</v>
       </c>
       <c r="P2" t="n">
-        <v>1.742184514603348</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3648160276856558, 2.119553001521041]</t>
+          <t>[0.8742369946926551, 2.459184639746965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.825695398835705e-12</v>
+        <v>0.0001110482860171569</v>
       </c>
       <c r="S2" t="n">
-        <v>4.825695398835705e-12</v>
+        <v>0.0001110482860171569</v>
       </c>
       <c r="T2" t="n">
-        <v>70.37303827211969</v>
+        <v>53.38165799008362</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[58.006697841073304, 82.73937870316607]</t>
+          <t>[39.31606259383943, 67.44725338632782]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>1.142514083340984e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>1.142514083340984e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>16.39135135135143</v>
+        <v>16.73725725725735</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.02918918918926</v>
+        <v>13.86410410410418</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.7535135135136</v>
+        <v>19.61041041041052</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.68000000000011</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009811331950526636</v>
+        <v>1.335109256483946e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009811331950526636</v>
+        <v>1.335109256483946e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.69627153579664</v>
+        <v>62.66453738660292</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[15.05322229947997, 66.33932077211331]</t>
+          <t>[42.117331647392206, 83.21174312581363]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.002545522675897249</v>
+        <v>1.917322112188202e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002545522675897249</v>
+        <v>1.917322112188202e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.817658211986886</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0880791372793457, 2.5472372866944273]</t>
+          <t>[1.540921321580579, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.666754596209358e-06</v>
+        <v>4.085620730620576e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>8.666754596209358e-06</v>
+        <v>4.085620730620576e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>51.79590645540019</v>
+        <v>69.20598377598182</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[37.68692512881637, 65.904887781984]</t>
+          <t>[57.43514908168915, 80.9768184702745]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.663316012174732e-09</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.663316012174732e-09</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>16.118918918919</v>
+        <v>15.91635635635644</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.48540540540547</v>
+        <v>14.63939939939948</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.75243243243253</v>
+        <v>17.1933133133134</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.68000000000011</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.869065203776501e-07</v>
+        <v>9.826340004237544e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>3.869065203776501e-07</v>
+        <v>9.826340004237544e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.76076302849162</v>
+        <v>45.90605754248594</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.973371505503053, 72.5481545514802]</t>
+          <t>[22.85828464380701, 68.95383044116487]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.541694821278639e-05</v>
+        <v>0.0002249625523440546</v>
       </c>
       <c r="O4" t="n">
-        <v>2.541694821278639e-05</v>
+        <v>0.0002249625523440546</v>
       </c>
       <c r="P4" t="n">
-        <v>2.484342538874811</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.0692372032653488, 2.8994478744842738]</t>
+          <t>[1.9308687580621946, 2.861711025792504]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.647570968543732e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.647570968543732e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>69.91328244904889</v>
+        <v>67.76432143144841</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[58.58675067828315, 81.23981421981463]</t>
+          <t>[55.77051425593165, 79.75812860696516]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>13.7124324324325</v>
+        <v>14.09213213213221</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.21405405405411</v>
+        <v>12.40472472472479</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.21081081081088</v>
+        <v>15.77953953953963</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.92000000000014</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005310030143512723</v>
+        <v>7.894506408345769e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005310030143512723</v>
+        <v>7.894506408345769e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.01962813957645</v>
+        <v>40.15443412497083</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[15.752726988051386, 60.28652929110151]</t>
+          <t>[18.33301385745807, 61.9758543924836]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001269305596920844</v>
+        <v>0.0005740884137317437</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001269305596920844</v>
+        <v>0.0005740884137317437</v>
       </c>
       <c r="P5" t="n">
-        <v>3.025237370123504</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.283079345852042, 3.767395394394967]</t>
+          <t>[2.1069740519571187, 3.2893953109658893]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.708573282854786e-10</v>
+        <v>6.800782159643859e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.708573282854786e-10</v>
+        <v>6.800782159643859e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>59.99617800338493</v>
+        <v>64.69765941378702</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.927099428817996, 73.06525657795186]</t>
+          <t>[52.73128093663747, 76.66403789093658]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.71120928327673e-12</v>
+        <v>3.375077994860476e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>5.71120928327673e-12</v>
+        <v>3.375077994860476e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>11.88444444444452</v>
+        <v>13.15165165165175</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.177177177177235</v>
+        <v>10.98278278278286</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.5917117117118</v>
+        <v>15.32052052052063</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.92000000000014</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00139465062563926</v>
+        <v>0.01988584360502132</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00139465062563926</v>
+        <v>0.01988584360502132</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.37748350688009</v>
+        <v>32.22176625863204</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[12.884855670112884, 63.870111343647295]</t>
+          <t>[5.439943631532344, 59.003588885731745]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.004020451474406883</v>
+        <v>0.01946939422240779</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004020451474406883</v>
+        <v>0.01946939422240779</v>
       </c>
       <c r="P6" t="n">
-        <v>2.849132076228582</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.0943951023931957, 3.6038690500639676]</t>
+          <t>[1.9057108589343494, 4.2202375786961985]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.310888952943401e-09</v>
+        <v>3.035368669301874e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.310888952943401e-09</v>
+        <v>3.035368669301874e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>58.88937810968183</v>
+        <v>69.23103320832732</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.64449706192819, 73.13425915743547]</t>
+          <t>[53.25238735786649, 85.20967905878814]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.15991216631528e-10</v>
+        <v>3.095479428338876e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15991216631528e-10</v>
+        <v>3.095479428338876e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>12.52684684684692</v>
+        <v>11.8134134134135</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.773693693693751</v>
+        <v>7.567967967968021</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.28000000000009</v>
+        <v>16.05885885885897</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.92000000000014</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007090700484622126</v>
+        <v>8.45009515528794e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007090700484622126</v>
+        <v>8.45009515528794e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>35.83914203508134</v>
+        <v>39.74397248083817</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[12.397779235483895, 59.280504834678794]</t>
+          <t>[19.95663886310389, 59.53130609857244]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.003529976888952957</v>
+        <v>0.0002024527384631991</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003529976888952957</v>
+        <v>0.0002024527384631991</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.629000458859927</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.2956847857478517, -1.9623161319720022]</t>
+          <t>[-3.685632222229467, -2.4528951649650033]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.181401891401038e-10</v>
+        <v>4.742872761198669e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>4.181401891401038e-10</v>
+        <v>4.742872761198669e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>63.4764132591892</v>
+        <v>58.05501177358263</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[51.03812998788183, 75.91469653049657]</t>
+          <t>[46.120639773136006, 69.98938377402926]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.182698466413058e-13</v>
+        <v>9.827694213981886e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.182698466413058e-13</v>
+        <v>9.827694213981886e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>9.59015015015021</v>
+        <v>11.25965965965974</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.158198198198241</v>
+        <v>8.998498498498561</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.02210210210218</v>
+        <v>13.52082082082092</v>
       </c>
     </row>
   </sheetData>
